--- a/data/ae_categories.xlsx
+++ b/data/ae_categories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/LRZ Sync+Share/Projects/GALENOS/3. systematic reviews/taar/4_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDDC058-2FD5-214F-92BA-D3F263802936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8E98D4-FCB5-3246-85DC-A662B0BDD010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13940" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>hyperprolactinemia</t>
   </si>
   <si>
-    <t>anticholinertgic_symptom</t>
-  </si>
-  <si>
     <t>adverse_event</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Insomnia</t>
+  </si>
+  <si>
+    <t>anticholinergic_symptom</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -549,18 +549,18 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -582,18 +582,18 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -626,7 +626,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
